--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>948043.1563716871</v>
+        <v>948827.3023097162</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443407</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797656</v>
+        <v>14829673.35797655</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +676,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>158.841334124391</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>158.8413341243909</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.513898778128084</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>176.3509319694015</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>136.9013455552337</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F5" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="T5" t="n">
-        <v>159.0801288120801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -978,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -990,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>90.15235188423088</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,7 +1034,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>133.0083446499082</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>130.4655268502615</v>
+        <v>110.9174757594851</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1139,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="F8" t="n">
-        <v>171.0294181666926</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1212,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>4.39757018420114</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>86.00356532003907</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="11">
@@ -1370,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>7.565027066663822</v>
       </c>
       <c r="C12" t="n">
-        <v>7.692106705274854</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1509,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1619,61 +1621,61 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>9.211010870930394</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R14" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S14" t="n">
+      <c r="Y14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>42.14629172736426</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,16 +1736,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1752,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="16">
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1856,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>103.0088977318019</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1886,25 +1888,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>218.2545356023572</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1923,7 +1925,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1932,10 +1934,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>77.62142133546926</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1983,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>153.6529064549858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2008,64 +2010,64 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>190.3453970742847</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,25 +2165,25 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>23.59693780716445</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>11.18709822926787</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2339,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2372,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>241.0142888776591</v>
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>56.91690033700354</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2409,10 +2411,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>12.04606782006218</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2451,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,7 +2462,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>109.4031921034047</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2688,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2700,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2722,52 +2724,52 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,70 +2794,70 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T29" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U29" t="n">
-        <v>240.2580556792261</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,16 +2873,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>91.56533252450006</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>117.6168938316385</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3007,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>70.34400780127524</v>
-      </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3071,16 +3073,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3105,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>89.20720739599011</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3120,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3162,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3399,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3408,7 +3410,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>29.14270706479791</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3500,11 +3502,11 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="C38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>202.2946864288972</v>
-      </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3560,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>241.0142888776591</v>
@@ -3579,31 +3581,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>56.96494961966629</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>58.1958364687712</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3703,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3749,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3791,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>52.64939492479352</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3873,10 +3875,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3885,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>186.3732331246961</v>
       </c>
     </row>
     <row r="43">
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>171.0294181666926</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4019,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4037,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4056,13 +4058,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>8.311618392921693</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>80.86228322859426</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4150,52 +4152,52 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.8838132313431</v>
+        <v>661.6255857082823</v>
       </c>
       <c r="C2" t="n">
-        <v>406.8838132313431</v>
+        <v>454.031803447393</v>
       </c>
       <c r="D2" t="n">
-        <v>406.8838132313431</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="E2" t="n">
-        <v>406.8838132313431</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="F2" t="n">
-        <v>399.9383124821396</v>
+        <v>31.89873817641097</v>
       </c>
       <c r="G2" t="n">
-        <v>384.4810018607911</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>176.8872195999018</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4337,13 +4339,13 @@
         <v>196.517279139721</v>
       </c>
       <c r="M2" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4364,16 +4366,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y2" t="n">
-        <v>406.8838132313431</v>
+        <v>661.6255857082823</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>340.5829991502264</v>
+        <v>272.8449139228332</v>
       </c>
       <c r="C3" t="n">
-        <v>166.1299698690994</v>
+        <v>272.8449139228332</v>
       </c>
       <c r="D3" t="n">
-        <v>17.19556020784815</v>
+        <v>272.8449139228332</v>
       </c>
       <c r="E3" t="n">
-        <v>17.19556020784815</v>
+        <v>272.8449139228332</v>
       </c>
       <c r="F3" t="n">
-        <v>17.19556020784815</v>
+        <v>272.8449139228332</v>
       </c>
       <c r="G3" t="n">
-        <v>17.19556020784815</v>
+        <v>134.1140885054487</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>20.74495291302803</v>
       </c>
       <c r="I3" t="n">
         <v>17.19556020784815</v>
@@ -4410,49 +4412,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>518.7152536647734</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U3" t="n">
-        <v>518.7152536647734</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V3" t="n">
-        <v>518.7152536647734</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W3" t="n">
-        <v>340.5829991502264</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="X3" t="n">
-        <v>340.5829991502264</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="Y3" t="n">
-        <v>340.5829991502264</v>
+        <v>441.0602509429012</v>
       </c>
     </row>
     <row r="4">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>443.6989813239244</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="C5" t="n">
-        <v>443.6989813239244</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="D5" t="n">
-        <v>443.6989813239244</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="E5" t="n">
-        <v>443.6989813239244</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F5" t="n">
-        <v>236.1051990630351</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G5" t="n">
         <v>28.51141680214578</v>
@@ -4580,7 +4582,7 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4595,22 +4597,22 @@
         <v>604.3859801240053</v>
       </c>
       <c r="T5" t="n">
-        <v>443.6989813239244</v>
+        <v>396.792197863116</v>
       </c>
       <c r="U5" t="n">
-        <v>443.6989813239244</v>
+        <v>396.792197863116</v>
       </c>
       <c r="V5" t="n">
-        <v>443.6989813239244</v>
+        <v>396.792197863116</v>
       </c>
       <c r="W5" t="n">
-        <v>443.6989813239244</v>
+        <v>396.792197863116</v>
       </c>
       <c r="X5" t="n">
-        <v>443.6989813239244</v>
+        <v>396.792197863116</v>
       </c>
       <c r="Y5" t="n">
-        <v>443.6989813239244</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>311.9103951894288</v>
+        <v>345.09272902505</v>
       </c>
       <c r="C6" t="n">
-        <v>311.9103951894288</v>
+        <v>345.09272902505</v>
       </c>
       <c r="D6" t="n">
-        <v>162.9759855281775</v>
+        <v>345.09272902505</v>
       </c>
       <c r="E6" t="n">
-        <v>162.9759855281775</v>
+        <v>345.09272902505</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>198.558171051935</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>198.558171051935</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>423.3667595428576</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P6" t="n">
         <v>822.0713777531216</v>
@@ -4668,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>614.4775954922324</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V6" t="n">
-        <v>480.1257322094968</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W6" t="n">
-        <v>480.1257322094968</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X6" t="n">
-        <v>480.1257322094968</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y6" t="n">
-        <v>480.1257322094968</v>
+        <v>513.308066045118</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="G7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="H7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>604.3859801240053</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="C8" t="n">
-        <v>604.3859801240053</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="D8" t="n">
-        <v>604.3859801240053</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="E8" t="n">
-        <v>604.3859801240053</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="F8" t="n">
-        <v>431.628992076841</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="G8" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4808,7 +4810,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
         <v>379.753706324525</v>
@@ -4841,13 +4843,13 @@
         <v>811.9797623848946</v>
       </c>
       <c r="W8" t="n">
-        <v>604.3859801240053</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X8" t="n">
-        <v>604.3859801240053</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y8" t="n">
-        <v>604.3859801240053</v>
+        <v>811.9797623848946</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>610.0356054071807</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="C9" t="n">
-        <v>435.5825761260537</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="D9" t="n">
-        <v>435.5825761260537</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="E9" t="n">
-        <v>276.3451211205982</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="F9" t="n">
-        <v>129.8105631474831</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G9" t="n">
-        <v>129.8105631474831</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N9" t="n">
         <v>366.5706756325438</v>
@@ -4908,25 +4910,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>817.62938766807</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T9" t="n">
-        <v>817.62938766807</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U9" t="n">
-        <v>817.62938766807</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V9" t="n">
-        <v>817.62938766807</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="W9" t="n">
-        <v>817.62938766807</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="X9" t="n">
-        <v>817.62938766807</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="Y9" t="n">
-        <v>610.0356054071807</v>
+        <v>359.5951503604969</v>
       </c>
     </row>
     <row r="10">
@@ -4978,31 +4980,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
         <v>16.44142755506243</v>
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C11" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
         <v>16.44142755506243</v>
@@ -5042,19 +5044,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5081,10 +5083,10 @@
         <v>614.4775954922324</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y11" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>822.0713777531216</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="C12" t="n">
-        <v>814.3015730003187</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D12" t="n">
-        <v>665.3671633390675</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E12" t="n">
-        <v>506.1297083336119</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5951503604969</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I12" t="n">
         <v>17.19556020784815</v>
@@ -5121,22 +5123,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5157,13 +5159,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y12" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5218,31 +5220,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>245.4092504478133</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C14" t="n">
-        <v>245.4092504478133</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D14" t="n">
-        <v>245.4092504478133</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E14" t="n">
-        <v>245.4092504478133</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F14" t="n">
-        <v>245.4092504478133</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G14" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>245.4092504478133</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y14" t="n">
-        <v>245.4092504478133</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>814.3015730003187</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5361,16 +5363,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5382,25 +5384,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U15" t="n">
-        <v>814.3015730003187</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V15" t="n">
-        <v>814.3015730003187</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W15" t="n">
-        <v>814.3015730003187</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X15" t="n">
-        <v>814.3015730003187</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="Y15" t="n">
-        <v>814.3015730003187</v>
+        <v>233.4664686820119</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5455,31 +5457,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>591.4512093066566</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C17" t="n">
-        <v>591.4512093066566</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D17" t="n">
-        <v>591.4512093066566</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E17" t="n">
-        <v>591.4512093066566</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>591.4512093066566</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>591.4512093066566</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U17" t="n">
-        <v>591.4512093066566</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V17" t="n">
-        <v>591.4512093066566</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W17" t="n">
-        <v>591.4512093066566</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X17" t="n">
-        <v>591.4512093066566</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y17" t="n">
-        <v>591.4512093066566</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>640.636862475431</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="C18" t="n">
-        <v>466.183833194304</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="D18" t="n">
-        <v>317.2494235330527</v>
+        <v>403.4586321852169</v>
       </c>
       <c r="E18" t="n">
-        <v>158.0119685275972</v>
+        <v>244.2211771797614</v>
       </c>
       <c r="F18" t="n">
-        <v>158.0119685275972</v>
+        <v>97.68661920664633</v>
       </c>
       <c r="G18" t="n">
         <v>19.28114311021272</v>
@@ -5598,13 +5600,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
         <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5631,13 +5633,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y18" t="n">
-        <v>808.852199495499</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>467.067986854209</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C20" t="n">
-        <v>223.6192102101089</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D20" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W20" t="n">
-        <v>710.516763498309</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X20" t="n">
-        <v>710.516763498309</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y20" t="n">
-        <v>467.067986854209</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>577.1531170985884</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="C21" t="n">
-        <v>577.1531170985884</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="D21" t="n">
-        <v>577.1531170985884</v>
+        <v>190.405124450421</v>
       </c>
       <c r="E21" t="n">
-        <v>417.9156620931329</v>
+        <v>190.405124450421</v>
       </c>
       <c r="F21" t="n">
-        <v>271.3811041200179</v>
+        <v>43.87056647730597</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>952.7570562891535</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>779.3397117398224</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>577.1531170985884</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>577.1531170985884</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>577.1531170985884</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W21" t="n">
-        <v>577.1531170985884</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X21" t="n">
-        <v>577.1531170985884</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y21" t="n">
-        <v>577.1531170985884</v>
+        <v>339.3395341116723</v>
       </c>
     </row>
     <row r="22">
@@ -5935,16 +5937,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6020,19 +6022,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>344.6327430815143</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="C24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>31.44888838300281</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6069,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N24" t="n">
-        <v>712.019119383956</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6099,19 +6101,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X24" t="n">
-        <v>720.6083788665362</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y24" t="n">
-        <v>512.8480801015824</v>
+        <v>76.77296163243852</v>
       </c>
     </row>
     <row r="25">
@@ -6169,16 +6171,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>82.32787816303323</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>194.4883050441255</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6336,19 +6338,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>512.7568786610034</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>304.9965798960495</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>274.7999090013961</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D29" t="n">
-        <v>274.7999090013961</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>259.0600686093459</v>
+        <v>313.2932483084068</v>
       </c>
       <c r="C30" t="n">
-        <v>259.0600686093459</v>
+        <v>138.8402190272798</v>
       </c>
       <c r="D30" t="n">
-        <v>259.0600686093459</v>
+        <v>138.8402190272798</v>
       </c>
       <c r="E30" t="n">
-        <v>166.5698337361135</v>
+        <v>138.8402190272798</v>
       </c>
       <c r="F30" t="n">
         <v>20.03527576299844</v>
@@ -6546,46 +6548,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>259.0600686093459</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>259.0600686093459</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X30" t="n">
-        <v>259.0600686093459</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y30" t="n">
-        <v>259.0600686093459</v>
+        <v>313.2932483084068</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>333.7844730889342</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>90.33569644483418</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>333.7844730889342</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W32" t="n">
-        <v>333.7844730889342</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X32" t="n">
-        <v>333.7844730889342</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>333.7844730889342</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>109.3894334091926</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C33" t="n">
-        <v>109.3894334091926</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6810,19 +6812,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>485.4562706347935</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>277.6047704292607</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>277.6047704292607</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6914,10 +6916,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7047,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X36" t="n">
-        <v>227.7955745279523</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299844</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="37">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>419.9752190668252</v>
+        <v>560.6897102588255</v>
       </c>
       <c r="C39" t="n">
-        <v>419.9752190668252</v>
+        <v>386.2366809776985</v>
       </c>
       <c r="D39" t="n">
-        <v>419.9752190668252</v>
+        <v>237.3022713164472</v>
       </c>
       <c r="E39" t="n">
-        <v>419.9752190668252</v>
+        <v>78.06481631099172</v>
       </c>
       <c r="F39" t="n">
-        <v>362.4348659156472</v>
+        <v>78.06481631099172</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>627.7355178317791</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W39" t="n">
-        <v>627.7355178317791</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X39" t="n">
-        <v>627.7355178317791</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y39" t="n">
-        <v>419.9752190668252</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>877.0247885897328</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>877.0247885897328</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>877.0247885897328</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7418,13 +7420,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7439,22 +7441,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V41" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W41" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X41" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>190.8944568361894</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
         <v>16.44142755506243</v>
@@ -7497,10 +7499,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O42" t="n">
         <v>639.4279001397708</v>
@@ -7512,28 +7514,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>768.8901707583807</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>768.8901707583807</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>566.7035761171468</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U42" t="n">
-        <v>566.7035761171468</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V42" t="n">
-        <v>566.7035761171468</v>
+        <v>204.697218590109</v>
       </c>
       <c r="W42" t="n">
-        <v>566.7035761171468</v>
+        <v>204.697218590109</v>
       </c>
       <c r="X42" t="n">
-        <v>566.7035761171468</v>
+        <v>204.697218590109</v>
       </c>
       <c r="Y42" t="n">
-        <v>359.1097938562575</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7652,13 +7654,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
         <v>732.4113224610707</v>
@@ -7667,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>396.792197863116</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X44" t="n">
-        <v>396.792197863116</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y44" t="n">
-        <v>189.1984156022267</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>98.12050152333947</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C45" t="n">
-        <v>98.12050152333947</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="D45" t="n">
-        <v>98.12050152333947</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="E45" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
         <v>16.44142755506243</v>
@@ -7728,13 +7730,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N45" t="n">
         <v>435.9652341458732</v>
@@ -7749,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W45" t="n">
-        <v>513.308066045118</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X45" t="n">
-        <v>305.7142837842288</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y45" t="n">
-        <v>98.12050152333947</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H46" t="n">
         <v>687.5390872628509</v>
@@ -7843,13 +7845,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
   </sheetData>
@@ -7985,7 +7987,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -7994,7 +7996,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8070,13 +8072,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>234.2160227667432</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8228,10 +8230,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8797879011645</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>144.0674440055713</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8456,10 +8458,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8532,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>290.282096632709</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
@@ -8690,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8699,13 +8701,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -8942,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>160.0786444523452</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
@@ -9021,7 +9023,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9246,16 +9248,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9717,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,7 +10196,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10203,13 +10205,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,10 +10825,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10902,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133073</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>401.9436843039723</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11145,13 +11147,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>222.9614904056321</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11300,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11309,7 +11311,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11376,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>144.0674440055713</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -23258,16 +23260,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>225.855928360474</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23321,10 +23323,10 @@
         <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>158.9681565832035</v>
       </c>
       <c r="C12" t="n">
-        <v>165.0163922830409</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23397,13 +23399,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23507,16 +23509,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0917266442046</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,13 +23539,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23555,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>95.19722543584638</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23622,16 +23624,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>218.2492753757</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23640,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23744,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>312.2938397833332</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23774,25 +23776,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>130.9864331150558</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23811,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23820,10 +23822,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>59.72209582774137</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23871,13 +23873,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>52.02978932231852</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23896,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>333.4992862499586</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23984,13 +23986,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>149.1294050414824</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,31 +24013,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24051,25 +24053,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>113.7465793560462</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>88.97073592337526</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24108,10 +24110,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24175,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24206,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24227,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24260,13 +24262,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>127.4161621813053</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>128.71681180081</v>
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>115.7915986513122</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24297,10 +24299,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>100.1893764164343</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24339,7 +24341,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24348,7 +24350,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24421,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>292.2667739183906</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24488,7 +24490,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24500,16 +24502,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>57.12999154646259</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24543,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24576,10 +24578,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24588,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,16 +24682,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24701,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,28 +24724,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>11.08759722861041</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24759,16 +24761,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>66.07974793090088</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>27.45231856174534</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24895,10 +24897,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24917,16 +24919,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>284.3390338194077</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24959,16 +24961,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24993,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>58.23785816864864</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25008,7 +25010,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>108.2910995245859</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25050,7 +25052,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25287,7 +25289,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25296,7 +25298,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C38" t="n">
-        <v>162.9782053421103</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25448,13 +25450,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>145.2236497783945</v>
@@ -25467,31 +25469,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>88.10426277371759</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>79.14768069443943</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25536,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2218967649542</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25591,7 +25593,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25600,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25637,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25679,16 +25681,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>42.075732182894</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25752,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>47.50843922784961</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25761,10 +25763,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25773,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>19.30946265260823</v>
       </c>
     </row>
     <row r="43">
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>211.7044234967879</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25925,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25944,13 +25946,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>149.3334620624792</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25962,7 +25964,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>8.534349622820812</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26038,7 +26040,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>410475.9537730997</v>
+        <v>410475.9537730998</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>410475.9537730996</v>
+        <v>410475.9537730997</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>432375.0182518954</v>
+        <v>432375.0182518953</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>432375.0182518954</v>
+        <v>432375.0182518953</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>432375.0182518954</v>
+        <v>432375.0182518953</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>432375.0182518953</v>
+        <v>432375.0182518954</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>432375.0182518953</v>
+        <v>432375.0182518952</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>410475.9537730997</v>
+        <v>410475.9537730998</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26316,43 @@
         <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
         <v>189309.1702019179</v>
       </c>
       <c r="F2" t="n">
-        <v>189309.1702019179</v>
+        <v>189309.170201918</v>
       </c>
       <c r="G2" t="n">
+        <v>199392.8070375988</v>
+      </c>
+      <c r="H2" t="n">
         <v>199392.8070375987</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>199392.8070375988</v>
-      </c>
-      <c r="I2" t="n">
-        <v>199392.8070375987</v>
       </c>
       <c r="J2" t="n">
         <v>199392.8070375987</v>
       </c>
       <c r="K2" t="n">
+        <v>199392.8070375987</v>
+      </c>
+      <c r="L2" t="n">
         <v>199392.8070375988</v>
-      </c>
-      <c r="L2" t="n">
-        <v>199392.8070375987</v>
       </c>
       <c r="M2" t="n">
         <v>199392.8070375987</v>
       </c>
       <c r="N2" t="n">
-        <v>199392.8070375987</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="O2" t="n">
-        <v>189309.1702019179</v>
+        <v>189309.170201918</v>
       </c>
       <c r="P2" t="n">
         <v>189309.170201918</v>
@@ -26427,7 +26429,7 @@
         <v>47787.18911168983</v>
       </c>
       <c r="F4" t="n">
-        <v>47787.18911168982</v>
+        <v>47787.18911168983</v>
       </c>
       <c r="G4" t="n">
         <v>50385.00392753457</v>
@@ -26451,13 +26453,13 @@
         <v>50385.00392753457</v>
       </c>
       <c r="N4" t="n">
-        <v>50385.00392753457</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="O4" t="n">
         <v>47787.18911168983</v>
       </c>
       <c r="P4" t="n">
-        <v>47787.18911168982</v>
+        <v>47787.18911168983</v>
       </c>
     </row>
     <row r="5">
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41303.15713589493</v>
+        <v>41303.15713589491</v>
       </c>
       <c r="C6" t="n">
         <v>110176.9137175847</v>
       </c>
       <c r="D6" t="n">
-        <v>110176.9137175846</v>
+        <v>110176.9137175847</v>
       </c>
       <c r="E6" t="n">
         <v>129026.4961483806</v>
       </c>
       <c r="F6" t="n">
-        <v>129026.4961483806</v>
+        <v>129026.4961483807</v>
       </c>
       <c r="G6" t="n">
-        <v>124625.0913721354</v>
+        <v>124625.0913721355</v>
       </c>
       <c r="H6" t="n">
+        <v>134354.1343463025</v>
+      </c>
+      <c r="I6" t="n">
         <v>134354.1343463026</v>
-      </c>
-      <c r="I6" t="n">
-        <v>134354.1343463025</v>
       </c>
       <c r="J6" t="n">
         <v>80581.62345609305</v>
@@ -26561,7 +26563,7 @@
         <v>129026.4961483807</v>
       </c>
       <c r="P6" t="n">
-        <v>129026.4961483808</v>
+        <v>129026.4961483807</v>
       </c>
     </row>
   </sheetData>
@@ -27379,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>51.63455544601496</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -27436,16 +27438,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>227.3966045316627</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>85.882734073287</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27518,10 +27520,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>75.34405119151813</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>245.8324961082469</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27667,7 +27669,7 @@
         <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
-        <v>64.01572075205127</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27698,7 +27700,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27710,13 +27712,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>22.08309235226558</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27752,7 +27754,7 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>99.79224249951707</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27792,13 +27794,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>24.98494807699677</v>
+        <v>44.53299916777314</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27859,22 +27861,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>222.8502412601817</v>
       </c>
       <c r="F8" t="n">
-        <v>235.8466275750188</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
         <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27913,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27932,28 +27934,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,10 +27982,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>167.2856009196367</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27992,13 +27994,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>165.6914178408805</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28071,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="11">
@@ -34705,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34714,7 +34716,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,13 +34792,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>91.61977832229879</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7815764794778</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N6" t="n">
-        <v>12.72573192223801</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35176,10 +35178,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
@@ -35410,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
@@ -35419,13 +35421,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35662,7 +35664,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,7 +35731,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
@@ -35741,7 +35743,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35966,16 +35968,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36133,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36923,13 +36925,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37385,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>99.81127712997396</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>171.5974510766996</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37795,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37865,13 +37867,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>91.61977832229879</v>
-      </c>
-      <c r="O42" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38020,7 +38022,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38029,7 +38031,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38096,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>12.72573192223801</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>948827.3023097162</v>
+        <v>879824.1922954733</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443407</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797655</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6550263.833516465</v>
+        <v>6608086.424186327</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>9.891109467671333</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>158.8413341243909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="I3" t="n">
-        <v>3.513898778128084</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>130.4655268502615</v>
+        <v>3.89241773958567</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>136.9013455552337</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>57.16776090941369</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -943,16 +943,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>205.5178444382804</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>90.15235188423088</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>69.99226724763534</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>205.5178444382804</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>110.9174757594851</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>159.0801288120801</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>205.5178444382804</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>198.7050131246913</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1223,13 +1223,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.6182439009737</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>86.00356532003907</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.83685490770582</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.565027066663822</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1469,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>31.60815104066432</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1651,31 +1651,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>116.7833678227963</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>42.14629172736426</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.5178444382804</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1861,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W17" t="n">
-        <v>218.2545356023572</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,22 +1922,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>77.62142133546926</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>155.5825568932142</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>50.46697834767983</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2165,16 +2165,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>23.59693780716445</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>98.09531059045651</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,67 +2320,67 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.809496073036188</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>200.3360962888297</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>241.0142888776591</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>56.91690033700354</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2453,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,64 +2557,64 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>212.285385643442</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>83.40091804193487</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2699,10 +2699,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="F29" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>117.6168938316385</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>144.2395975293023</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,67 +3034,67 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>112.3289263072337</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F32" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3119,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="G33" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3189,67 +3189,67 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,70 +3268,70 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>80.33470701582003</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3410,10 +3410,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>241.0142888776591</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,22 +3581,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>58.1958364687712</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3635,19 +3635,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,19 +3751,19 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>9.234466016111835</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>25.74402920133843</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>186.3732331246961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3918,40 +3918,40 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,19 +4058,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>8.311618392921693</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>38.91925987296635</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4118,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>661.6255857082823</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="C2" t="n">
-        <v>454.031803447393</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="D2" t="n">
-        <v>246.4380211865037</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="E2" t="n">
-        <v>38.84423892561444</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="F2" t="n">
-        <v>31.89873817641097</v>
+        <v>85.86136179523773</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>196.517279139721</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="X2" t="n">
-        <v>822.0713777531216</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="Y2" t="n">
-        <v>661.6255857082823</v>
+        <v>95.85238145955221</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>272.8449139228332</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="C3" t="n">
-        <v>272.8449139228332</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="D3" t="n">
-        <v>272.8449139228332</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="E3" t="n">
-        <v>272.8449139228332</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="F3" t="n">
-        <v>272.8449139228332</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="G3" t="n">
-        <v>134.1140885054487</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="H3" t="n">
-        <v>20.74495291302803</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="N3" t="n">
-        <v>423.3667595428576</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>648.6540332037905</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>648.6540332037905</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>648.6540332037905</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>648.6540332037905</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
-        <v>441.0602509429012</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="Y3" t="n">
-        <v>441.0602509429012</v>
+        <v>51.89093722176946</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>80.82849811456629</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>258.5080104335871</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C5" t="n">
-        <v>258.5080104335871</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D5" t="n">
-        <v>258.5080104335871</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E5" t="n">
-        <v>50.91422817269779</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F5" t="n">
-        <v>43.96872742349432</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>811.9797623848946</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>604.3859801240053</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>396.792197863116</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>396.792197863116</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V5" t="n">
-        <v>396.792197863116</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W5" t="n">
-        <v>396.792197863116</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X5" t="n">
-        <v>396.792197863116</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.792197863116</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>345.09272902505</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>345.09272902505</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>345.09272902505</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>345.09272902505</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>198.558171051935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>198.558171051935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
-        <v>548.724319600695</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>752.1869855945927</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>893.3578956645399</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>691.171301023306</v>
       </c>
       <c r="U6" t="n">
-        <v>513.308066045118</v>
+        <v>462.9476827596951</v>
       </c>
       <c r="V6" t="n">
-        <v>513.308066045118</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="W6" t="n">
-        <v>513.308066045118</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X6" t="n">
-        <v>513.308066045118</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y6" t="n">
-        <v>513.308066045118</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>710.0335234506114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>710.0335234506114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>714.8532122705639</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>754.041250462786</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>797.7321011182223</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>822.0713777531216</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>822.0713777531216</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>822.0713777531216</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>822.0713777531216</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>822.0713777531216</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>822.0713777531216</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>822.0713777531216</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>822.0713777531216</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>811.9797623848946</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C8" t="n">
-        <v>811.9797623848946</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D8" t="n">
-        <v>811.9797623848946</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E8" t="n">
-        <v>651.2927635848137</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>443.6989813239244</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>236.1051990630351</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>236.1051990630351</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>811.9797623848946</v>
+        <v>753.253405673024</v>
       </c>
       <c r="U8" t="n">
-        <v>811.9797623848946</v>
+        <v>753.253405673024</v>
       </c>
       <c r="V8" t="n">
-        <v>811.9797623848946</v>
+        <v>753.253405673024</v>
       </c>
       <c r="W8" t="n">
-        <v>811.9797623848946</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="X8" t="n">
-        <v>811.9797623848946</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y8" t="n">
-        <v>811.9797623848946</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>359.5951503604969</v>
+        <v>256.869462878957</v>
       </c>
       <c r="C9" t="n">
-        <v>359.5951503604969</v>
+        <v>256.869462878957</v>
       </c>
       <c r="D9" t="n">
-        <v>359.5951503604969</v>
+        <v>256.869462878957</v>
       </c>
       <c r="E9" t="n">
-        <v>359.5951503604969</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F9" t="n">
-        <v>359.5951503604969</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8643249431123</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>943.2306465197537</v>
       </c>
       <c r="S9" t="n">
-        <v>648.6540332037905</v>
+        <v>943.2306465197537</v>
       </c>
       <c r="T9" t="n">
-        <v>446.4674385625565</v>
+        <v>943.2306465197537</v>
       </c>
       <c r="U9" t="n">
-        <v>446.4674385625565</v>
+        <v>943.2306465197537</v>
       </c>
       <c r="V9" t="n">
-        <v>446.4674385625565</v>
+        <v>708.078538288011</v>
       </c>
       <c r="W9" t="n">
-        <v>359.5951503604969</v>
+        <v>464.6297616439109</v>
       </c>
       <c r="X9" t="n">
-        <v>359.5951503604969</v>
+        <v>464.6297616439109</v>
       </c>
       <c r="Y9" t="n">
-        <v>359.5951503604969</v>
+        <v>256.869462878957</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>961.308225475175</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>961.308225475175</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>961.308225475175</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>961.308225475175</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>961.308225475175</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>961.308225475175</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>961.308225475175</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>961.308225475175</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>961.308225475175</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>961.308225475175</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>961.308225475175</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>961.308225475175</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>961.308225475175</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>961.308225475175</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>961.308225475175</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>85.87524403801982</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>265.9510956226784</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>469.413761616576</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>672.8764276104736</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W11" t="n">
-        <v>614.4775954922324</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X11" t="n">
-        <v>406.8838132313431</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>199.2900309704538</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>191.6485894889752</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="C12" t="n">
-        <v>17.19556020784815</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="D12" t="n">
-        <v>17.19556020784815</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="E12" t="n">
-        <v>17.19556020784815</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="F12" t="n">
-        <v>17.19556020784815</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="G12" t="n">
-        <v>17.19556020784815</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>219.90409354896</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M12" t="n">
-        <v>423.3667595428576</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3667595428576</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>626.8294255367553</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>809.472903150106</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W12" t="n">
-        <v>614.4775954922324</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X12" t="n">
-        <v>406.8838132313431</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="Y12" t="n">
-        <v>199.2900309704538</v>
+        <v>51.20856840381305</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.94135112442973</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>199.2900309704538</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>85.87524403801982</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>265.9510956226784</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>469.413761616576</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X14" t="n">
-        <v>614.4775954922324</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>406.8838132313431</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>233.4664686820119</v>
+        <v>137.2441409110171</v>
       </c>
       <c r="C15" t="n">
-        <v>59.01343940088492</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>59.01343940088492</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>59.01343940088492</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>59.01343940088492</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>752.1869855945927</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>648.6540332037905</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>648.6540332037905</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U15" t="n">
-        <v>648.6540332037905</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V15" t="n">
-        <v>441.0602509429012</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W15" t="n">
-        <v>441.0602509429012</v>
+        <v>345.004439675971</v>
       </c>
       <c r="X15" t="n">
-        <v>441.0602509429012</v>
+        <v>345.004439675971</v>
       </c>
       <c r="Y15" t="n">
-        <v>233.4664686820119</v>
+        <v>137.2441409110171</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.94135112442973</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>738.7078125165641</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U17" t="n">
-        <v>495.259035872464</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V17" t="n">
-        <v>251.810259228364</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W17" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>552.3930418464681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>552.3930418464681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>403.4586321852169</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>244.2211771797614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>97.68661920664633</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
         <v>19.28114311021272</v>
@@ -5603,13 +5603,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W18" t="n">
-        <v>720.6083788665362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X18" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5706,13 +5706,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>40.6788758079141</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C20" t="n">
-        <v>40.6788758079141</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>527.5764290961142</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U20" t="n">
-        <v>284.1276524520142</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V20" t="n">
-        <v>284.1276524520142</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W20" t="n">
-        <v>284.1276524520142</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X20" t="n">
-        <v>284.1276524520142</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y20" t="n">
-        <v>284.1276524520142</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>339.3395341116723</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C21" t="n">
-        <v>339.3395341116723</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D21" t="n">
-        <v>190.405124450421</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E21" t="n">
-        <v>190.405124450421</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>43.87056647730597</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>864.9709831970438</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>629.8188749653011</v>
       </c>
       <c r="W21" t="n">
-        <v>547.1910343172051</v>
+        <v>386.3700983212011</v>
       </c>
       <c r="X21" t="n">
-        <v>339.3395341116723</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="Y21" t="n">
-        <v>339.3395341116723</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="22">
@@ -5937,19 +5937,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>518.2486856454962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E23" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F23" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6025,16 +6025,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>518.2486856454962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>518.2486856454962</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="24">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>76.77296163243852</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C24" t="n">
         <v>19.28114311021272</v>
@@ -6074,19 +6074,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6101,19 +6101,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>735.8335372470253</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W24" t="n">
-        <v>492.3847606029253</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X24" t="n">
-        <v>284.5332603973924</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y24" t="n">
-        <v>76.77296163243852</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="25">
@@ -6171,19 +6171,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>82.32787816303323</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6317,10 +6317,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>706.3964594037951</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>471.2443511720524</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y27" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6408,13 +6408,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D29" t="n">
-        <v>233.7108255783361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E29" t="n">
-        <v>233.7108255783361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>313.2932483084068</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
-        <v>138.8402190272798</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>138.8402190272798</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>138.8402190272798</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>644.9432478003937</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>644.9432478003937</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>644.9432478003937</v>
       </c>
       <c r="W30" t="n">
-        <v>728.9050472788936</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X30" t="n">
-        <v>521.0535470733607</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y30" t="n">
-        <v>313.2932483084068</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C32" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D32" t="n">
-        <v>477.1596022224361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E32" t="n">
-        <v>233.7108255783361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="33">
@@ -6767,7 +6767,7 @@
         <v>49.38115216564972</v>
       </c>
       <c r="F33" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
         <v>20.03527576299844</v>
@@ -6782,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6961,13 +6961,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U35" t="n">
         <v>506.1786963984129</v>
@@ -6976,13 +6976,13 @@
         <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -7019,13 +7019,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
         <v>473.4149733950735</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W36" t="n">
-        <v>485.4562706347935</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X36" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7119,19 +7119,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7216,10 +7216,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>560.6897102588255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>386.2366809776985</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>237.3022713164472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>78.06481631099172</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>78.06481631099172</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7265,10 +7265,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W39" t="n">
-        <v>728.9050472788936</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X39" t="n">
-        <v>728.9050472788936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>728.9050472788936</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7362,19 +7362,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
         <v>19.28114311021272</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>639.2227743377304</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C41" t="n">
-        <v>431.628992076841</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D41" t="n">
-        <v>431.628992076841</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y41" t="n">
-        <v>822.0713777531216</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16.44142755506243</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M42" t="n">
-        <v>548.724319600695</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N42" t="n">
-        <v>548.724319600695</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>938.0530856102944</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>764.6357410609633</v>
       </c>
       <c r="T42" t="n">
-        <v>619.8847831118876</v>
+        <v>764.6357410609633</v>
       </c>
       <c r="U42" t="n">
-        <v>412.2910008509983</v>
+        <v>764.6357410609633</v>
       </c>
       <c r="V42" t="n">
-        <v>204.697218590109</v>
+        <v>764.6357410609633</v>
       </c>
       <c r="W42" t="n">
-        <v>204.697218590109</v>
+        <v>521.1869644168632</v>
       </c>
       <c r="X42" t="n">
-        <v>204.697218590109</v>
+        <v>521.1869644168632</v>
       </c>
       <c r="Y42" t="n">
-        <v>16.44142755506243</v>
+        <v>521.1869644168632</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.8838132313431</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W44" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X44" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>614.4775954922324</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>199.2900309704538</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="C45" t="n">
-        <v>24.83700168932677</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="D45" t="n">
-        <v>24.83700168932677</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>232.5025681519757</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>435.9652341458732</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>924.7447718005692</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>924.7447718005692</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>722.5581771593352</v>
       </c>
       <c r="U45" t="n">
-        <v>822.0713777531216</v>
+        <v>722.5581771593352</v>
       </c>
       <c r="V45" t="n">
-        <v>822.0713777531216</v>
+        <v>722.5581771593352</v>
       </c>
       <c r="W45" t="n">
-        <v>614.4775954922324</v>
+        <v>722.5581771593352</v>
       </c>
       <c r="X45" t="n">
-        <v>406.8838132313431</v>
+        <v>514.7066769538023</v>
       </c>
       <c r="Y45" t="n">
-        <v>199.2900309704538</v>
+        <v>306.9463781888485</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>415.4335334139435</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>189.9047864055835</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>290.7443071551351</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8224,13 +8224,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>204.5647025239554</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,16 +8455,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>415.4335334139435</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>152.8659767558044</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8774,22 +8774,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.7075060082595</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9251,16 +9251,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9482,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>186.8580120236956</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,22 +9722,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9965,13 +9965,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O27" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10193,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10442,13 +10442,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>359.8407857361378</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10913,13 +10913,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11068,10 +11068,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11144,19 +11144,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>234.2160227667432</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11302,13 +11302,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11381,22 +11381,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>230.174158102173</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23305,28 +23305,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.9681565832035</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23357,10 +23357,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>57.78848181075076</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23460,10 +23460,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>130.2684670434959</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23509,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>234.2826201338976</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23539,31 +23539,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>166.9258651286752</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>55.92513116551942</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23588,7 +23588,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>95.19722543584638</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23627,22 +23627,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23697,10 +23697,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>130.2684670434959</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23709,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23737,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23749,13 +23749,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>119.2616763733422</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23788,13 +23788,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>130.9864331150558</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23810,22 +23810,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>59.72209582774137</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23867,16 +23867,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>70.3588251877606</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23974,16 +23974,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>333.4992862499586</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>331.4633917245819</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24053,16 +24053,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>113.7465793560462</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,16 +24098,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>127.8460714905183</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24177,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,16 +24220,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24265,10 +24265,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>127.4161621813053</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>128.71681180081</v>
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>115.7915986513122</v>
+        <v>122.6508037197626</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24341,10 +24341,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>302.8566240687152</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24454,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24490,7 +24490,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24502,7 +24502,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>142.9094900234331</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24572,13 +24572,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>142.5404640390399</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24657,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>341.4540909391266</v>
       </c>
       <c r="F29" t="n">
-        <v>194.5906600982693</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24742,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24770,7 +24770,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>27.45231856174534</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,22 +24809,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>55.92513116551933</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24891,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>180.9206650946078</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,16 +24922,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>302.9738112079013</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24964,25 +24964,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25007,10 +25007,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>116.0167947547591</v>
       </c>
       <c r="G33" t="n">
-        <v>108.2910995245859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,10 +25156,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25201,25 +25201,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>116.4754883813142</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25286,10 +25286,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25298,10 +25298,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>124.2586028933485</v>
@@ -25399,13 +25399,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14768069443943</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25523,19 +25523,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>201.7137242822432</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,19 +25639,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>340.0065027013012</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>74.41380495130471</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.30946265260823</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25806,7 +25806,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25839,7 +25839,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25882,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25921,19 +25921,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,19 +25946,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>149.3334620624792</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>61.23857427967678</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26006,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26079,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>991831.4128966829</v>
+        <v>980817.0156163124</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>991831.4128966829</v>
+        <v>994403.5067737569</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>991831.4128966829</v>
+        <v>994403.5067737569</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>410475.9537730998</v>
+        <v>432375.0182518953</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>410475.9537730997</v>
+        <v>432375.0182518953</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>432375.0182518952</v>
+        <v>432375.0182518953</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>410475.9537730996</v>
+        <v>432375.0182518953</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>410475.9537730998</v>
+        <v>432375.0182518953</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185703</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>189309.1702019179</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="F2" t="n">
-        <v>189309.170201918</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="G2" t="n">
         <v>199392.8070375988</v>
@@ -26352,10 +26352,10 @@
         <v>199392.8070375988</v>
       </c>
       <c r="O2" t="n">
-        <v>189309.170201918</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="P2" t="n">
-        <v>189309.170201918</v>
+        <v>199392.8070375988</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68873.75658168984</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9729.042974167098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>53772.51089020943</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336325.0632591379</v>
+        <v>366277.5278986197</v>
       </c>
       <c r="C4" t="n">
-        <v>336325.0632591379</v>
+        <v>329330.531561994</v>
       </c>
       <c r="D4" t="n">
-        <v>336325.0632591379</v>
+        <v>329330.531561994</v>
       </c>
       <c r="E4" t="n">
-        <v>47787.18911168983</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="F4" t="n">
-        <v>47787.18911168983</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="G4" t="n">
+        <v>50385.00392753458</v>
+      </c>
+      <c r="H4" t="n">
         <v>50385.00392753457</v>
-      </c>
-      <c r="H4" t="n">
-        <v>50385.00392753458</v>
       </c>
       <c r="I4" t="n">
         <v>50385.00392753457</v>
       </c>
       <c r="J4" t="n">
-        <v>50385.00392753457</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="K4" t="n">
         <v>50385.00392753457</v>
       </c>
       <c r="L4" t="n">
-        <v>50385.00392753457</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="M4" t="n">
         <v>50385.00392753457</v>
@@ -26456,10 +26456,10 @@
         <v>50385.00392753458</v>
       </c>
       <c r="O4" t="n">
-        <v>47787.18911168983</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="P4" t="n">
-        <v>47787.18911168983</v>
+        <v>50385.00392753457</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46123.08494184745</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26508,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41303.15713589491</v>
+        <v>71533.09299674424</v>
       </c>
       <c r="C6" t="n">
-        <v>110176.9137175847</v>
+        <v>54436.93940614624</v>
       </c>
       <c r="D6" t="n">
-        <v>110176.9137175847</v>
+        <v>115013.2615928143</v>
       </c>
       <c r="E6" t="n">
-        <v>129026.4961483806</v>
+        <v>122136.1237262621</v>
       </c>
       <c r="F6" t="n">
-        <v>129026.4961483807</v>
+        <v>122136.123726262</v>
       </c>
       <c r="G6" t="n">
-        <v>124625.0913721355</v>
+        <v>122136.123726262</v>
       </c>
       <c r="H6" t="n">
-        <v>134354.1343463025</v>
+        <v>122136.123726262</v>
       </c>
       <c r="I6" t="n">
-        <v>134354.1343463026</v>
+        <v>122136.1237262621</v>
       </c>
       <c r="J6" t="n">
-        <v>80581.62345609305</v>
+        <v>108134.8915859827</v>
       </c>
       <c r="K6" t="n">
-        <v>134354.1343463025</v>
+        <v>73879.17079262939</v>
       </c>
       <c r="L6" t="n">
-        <v>134354.1343463025</v>
+        <v>122136.123726262</v>
       </c>
       <c r="M6" t="n">
-        <v>134354.1343463025</v>
+        <v>122136.123726262</v>
       </c>
       <c r="N6" t="n">
-        <v>134354.1343463025</v>
+        <v>122136.1237262621</v>
       </c>
       <c r="O6" t="n">
-        <v>129026.4961483807</v>
+        <v>122136.1237262621</v>
       </c>
       <c r="P6" t="n">
-        <v>129026.4961483807</v>
+        <v>122136.1237262621</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26828,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>396.9849362740401</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,10 +27399,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>227.3966045316627</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27472,16 +27472,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>65.10160868453272</v>
       </c>
       <c r="I3" t="n">
-        <v>85.882734073287</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>152.2604561935277</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>152.1701667673546</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>126.3194511719875</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>46.82786452690797</v>
+        <v>173.4009736375838</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>165.072124342145</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245.8324961082469</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,10 +27624,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>349.7082848322977</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>3.502225147964936</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27706,16 +27706,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>22.08309235226558</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>101.6909038562025</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27794,13 +27794,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>44.53299916777314</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>95.24412853877561</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>222.8502412601817</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>4.958045132125505</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>24.39083643944002</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27943,13 +27943,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>79.53959025166944</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>165.6914178408805</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28031,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195525</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>185.0873001866707</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>148.1480627106907</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,13 +34944,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,16 +35175,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>185.0873001866707</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35257,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>21.52426467247106</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>12.72573192223796</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36135,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>55.51629994036225</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36685,13 +36685,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O27" t="n">
-        <v>55.51629994036219</v>
-      </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37150,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37162,13 +37162,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>217.7067518141195</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37554,7 +37554,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37633,13 +37633,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37788,10 +37788,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37864,19 +37864,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>91.61977832229879</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38022,13 +38022,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38101,22 +38101,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>91.61977832229879</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
